--- a/Spacex.xlsx
+++ b/Spacex.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Estudo_CDados\Atividade_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Estudo_CDados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11954446-F969-4639-81AB-5A66BF4B8E90}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9B27B0-139F-4390-B43E-C6F7A7D6794B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -1779,8 +1779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView zoomScale="78" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4208,7 +4208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" workbookViewId="0">
+    <sheetView zoomScale="77" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
